--- a/data/output/tables/exportaciones.xlsx
+++ b/data/output/tables/exportaciones.xlsx
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9303.009777507972</v>
+        <v>9293.687773673892</v>
       </c>
       <c r="C3">
-        <v>3601.131577773555</v>
+        <v>3564.102397870423</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>804.7398026181132</v>
+        <v>804.7419275793914</v>
       </c>
       <c r="C7">
-        <v>8054.024738245427</v>
+        <v>8054.67539808432</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>8947.045833432565</v>
+        <v>7413.748183490545</v>
       </c>
       <c r="C8">
-        <v>16330.55010495843</v>
+        <v>21710.52341720298</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/tables/exportaciones.xlsx
+++ b/data/output/tables/exportaciones.xlsx
@@ -22,22 +22,22 @@
     <t>test_rmse</t>
   </si>
   <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
     <t>xgb</t>
   </si>
   <si>
+    <t>ar</t>
+  </si>
+  <si>
     <t>arima</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>ar</t>
   </si>
   <si>
     <t>ann</t>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13.154549082672</v>
+        <v>1007.028452443161</v>
       </c>
       <c r="C2">
-        <v>2275.445492660668</v>
+        <v>1575.978803529021</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9293.687773673892</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3564.102397870423</v>
+        <v>1929.561955039648</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2416.438563243666</v>
+        <v>1432.642556892087</v>
       </c>
       <c r="C4">
-        <v>4927.816345965349</v>
+        <v>4022.388542599212</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>929.9875737865339</v>
+        <v>1979.623875894165</v>
       </c>
       <c r="C5">
-        <v>7356.098720110642</v>
+        <v>5259.280227226597</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3653.15611349095</v>
+        <v>1146.666224533709</v>
       </c>
       <c r="C6">
-        <v>7442.130202786046</v>
+        <v>6318.856015823229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>804.7419275793914</v>
+        <v>12566.99307464534</v>
       </c>
       <c r="C7">
-        <v>8054.67539808432</v>
+        <v>19487.73818669346</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7413.748183490545</v>
+        <v>26898.56865054936</v>
       </c>
       <c r="C8">
-        <v>21710.52341720298</v>
+        <v>34405.84975534292</v>
       </c>
     </row>
   </sheetData>
